--- a/biology/Zoologie/Dzharaonyx/Dzharaonyx.xlsx
+++ b/biology/Zoologie/Dzharaonyx/Dzharaonyx.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Dzharaonyx eski
-Dzharaonyx (signifiant « griffe de Dzharakuduk », du nom de la localité type) est un genre de dinosaures théropodes de la famille des Alvarezsauridés de la Formation de Bissekty du Crétacé supérieur d'Ouzbékistan. L'espèce type est Dzharaonyx eski ; « eski » étant un mot ouzbek pour « vieux »[1].
+Dzharaonyx (signifiant « griffe de Dzharakuduk », du nom de la localité type) est un genre de dinosaures théropodes de la famille des Alvarezsauridés de la Formation de Bissekty du Crétacé supérieur d'Ouzbékistan. L'espèce type est Dzharaonyx eski ; « eski » étant un mot ouzbek pour « vieux ».
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dzharaonyx est connu à partir d'une série de matériel post-crânien dissocié mais bien conservé. La forme de l'humérus est intermédiaire entre celle de Patagonykus et de Mononykus[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dzharaonyx est connu à partir d'une série de matériel post-crânien dissocié mais bien conservé. La forme de l'humérus est intermédiaire entre celle de Patagonykus et de Mononykus.
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L'analyse phylogénétique place Dzharaonyx dans une polytomie incluant d'autres membres asiatiques de Parvicursorinae. Cela en fait le plus ancien parvicursoriné connue à ce jour[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'analyse phylogénétique place Dzharaonyx dans une polytomie incluant d'autres membres asiatiques de Parvicursorinae. Cela en fait le plus ancien parvicursoriné connue à ce jour.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Paléoenvironnement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Dzharaonyx vivait dans la formation de Bissekty, qui a été intensivement étudiée ces dernières années. Il représente un milieu saumâtre[3]. Il a coexisté avec des théropodes plus grands, notamment le dromaeosauridé Itemirus, le tyrannosauroïde Timurlengia et le carcharodontosaurien Ulughbegsaurus. Des ornithischiens et le sauropode Dzharatitanis représentaient les herbivores de la région.
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dzharaonyx vivait dans la formation de Bissekty, qui a été intensivement étudiée ces dernières années. Il représente un milieu saumâtre. Il a coexisté avec des théropodes plus grands, notamment le dromaeosauridé Itemirus, le tyrannosauroïde Timurlengia et le carcharodontosaurien Ulughbegsaurus. Des ornithischiens et le sauropode Dzharatitanis représentaient les herbivores de la région.
 </t>
         </is>
       </c>
